--- a/Data/Analyser_p.verdi.xlsx
+++ b/Data/Analyser_p.verdi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldene_analyser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A832E25-7456-8B49-A5B2-1B5B035CB9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3AD70-331B-FF4E-9183-A0C159B46B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35260" yWindow="1640" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>vat.itt.p</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>es.ppm</t>
+  </si>
+  <si>
+    <t>act.itt.p</t>
+  </si>
+  <si>
+    <t>act.ppm.p</t>
+  </si>
+  <si>
+    <t>act.pp.p</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0E86A-64A0-A148-8295-824F29030311}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,6 +760,35 @@
         <v>0.38696000000000003</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.67589999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Analyser_p.verdi.xlsx
+++ b/Data/Analyser_p.verdi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3AD70-331B-FF4E-9183-A0C159B46B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA45581-E83F-514A-A6F3-F439F133D616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35260" yWindow="1640" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>vat.itt.p</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>es.ppm</t>
-  </si>
-  <si>
-    <t>act.itt.p</t>
-  </si>
-  <si>
-    <t>act.ppm.p</t>
-  </si>
-  <si>
-    <t>act.pp.p</t>
   </si>
 </sst>
 </file>
@@ -498,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0E86A-64A0-A148-8295-824F29030311}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.58499999999999996</v>
+        <v>0.505</v>
       </c>
       <c r="H2">
-        <v>0.23699999999999999</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -584,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>0.42899999999999999</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="H3">
-        <v>0.33800000000000002</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -613,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>4.5699999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="H4">
-        <v>0.97499999999999998</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -658,10 +649,10 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>0.28110000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="H7">
-        <v>0.50700000000000001</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -687,10 +678,10 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>0.65190000000000003</v>
+        <v>0.749</v>
       </c>
       <c r="H8">
-        <v>0.20960000000000001</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -716,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <v>0.39100000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H9">
-        <v>0.40100000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -758,35 +749,6 @@
       </c>
       <c r="K10">
         <v>0.38696000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.67589999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Analyser_p.verdi.xlsx
+++ b/Data/Analyser_p.verdi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA45581-E83F-514A-A6F3-F439F133D616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FFFEA-17DB-2242-9FD6-FBEA31B33890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35260" yWindow="1640" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>vat.itt.p</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>vat.ppm.p</t>
-  </si>
-  <si>
-    <t>wc.itt.p</t>
-  </si>
-  <si>
-    <t>wc.pp.p</t>
-  </si>
-  <si>
-    <t>wc.ppm.p</t>
   </si>
   <si>
     <t>tg.itt.p</t>
@@ -489,47 +480,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0E86A-64A0-A148-8295-824F29030311}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -566,73 +557,73 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.51649999999999996</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="E3">
-        <v>0.185</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>0.72299999999999998</v>
+        <v>0.107</v>
       </c>
       <c r="H3">
-        <v>0.15859999999999999</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.504</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K3">
-        <v>0.42249999999999999</v>
+        <v>0.56555</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>0.107</v>
-      </c>
-      <c r="H4">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="K4">
-        <v>0.56555</v>
+      <c r="D4">
+        <v>4.5170000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.1772</v>
+      </c>
+      <c r="E6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>4.5170000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="G6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>3.4000000000000002E-2</v>
+      <c r="J6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K6">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -640,28 +631,28 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1772</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E7">
-        <v>0.48299999999999998</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>0.48399999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="H7">
-        <v>0.34460000000000002</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7">
-        <v>0.94399999999999995</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K7">
-        <v>5.3999999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -669,28 +660,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.82299999999999995</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>0.749</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H8">
-        <v>0.15679999999999999</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8">
-        <v>0.90200000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="K8">
-        <v>9.4E-2</v>
+        <v>0.88329999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -698,56 +689,27 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.40300000000000002</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E9">
-        <v>0.29599999999999999</v>
+        <v>0.1477</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9">
-        <v>0.40699999999999997</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="H9">
-        <v>0.40899999999999997</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9">
-        <v>0.25900000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="K9">
-        <v>0.88329999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="E10">
-        <v>0.1477</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="K10">
         <v>0.38696000000000003</v>
       </c>
     </row>

--- a/Data/Analyser_p.verdi.xlsx
+++ b/Data/Analyser_p.verdi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FFFEA-17DB-2242-9FD6-FBEA31B33890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC5B36-038E-204F-86CA-3B1E6F56A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35260" yWindow="1640" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>vat.itt.p</t>
   </si>
@@ -56,12 +56,6 @@
     <t>tg.ppm.p</t>
   </si>
   <si>
-    <t>tg.itt.co</t>
-  </si>
-  <si>
-    <t>tg.itt.co.pre</t>
-  </si>
-  <si>
     <t>hdl.itt.p</t>
   </si>
   <si>
@@ -105,12 +99,6 @@
   </si>
   <si>
     <t>p.ppm</t>
-  </si>
-  <si>
-    <t>itt.co</t>
-  </si>
-  <si>
-    <t>itt.co.p</t>
   </si>
   <si>
     <t>itt</t>
@@ -480,236 +468,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0E86A-64A0-A148-8295-824F29030311}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.28699999999999998</v>
       </c>
+      <c r="C2">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
       <c r="E2">
-        <v>0.36720000000000003</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>0.505</v>
       </c>
+      <c r="F2">
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
       <c r="H2">
-        <v>0.30449999999999999</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="K2">
+      <c r="I2">
         <v>1.425</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>7.9600000000000004E-2</v>
       </c>
+      <c r="C3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
       <c r="E3">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
         <v>0.107</v>
       </c>
+      <c r="F3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
       <c r="H3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K3">
+      <c r="I3">
         <v>0.56555</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>4.5170000000000002E-2</v>
+      <c r="B4">
+        <v>0.1772</v>
+      </c>
+      <c r="C4">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I4">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>3.4000000000000002E-2</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="C5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0.749</v>
+      </c>
+      <c r="F5">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I5">
+        <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1772</v>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>0.48399999999999999</v>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>0.34460000000000002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K6">
-        <v>5.3999999999999999E-2</v>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.88329999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.82299999999999995</v>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.1477</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0.749</v>
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="K7">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="H8">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.88329999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="E9">
-        <v>0.1477</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
         <v>0.54200000000000004</v>
       </c>
-      <c r="K9">
+      <c r="I7">
         <v>0.38696000000000003</v>
       </c>
     </row>
